--- a/src/test/resources/org/echosoft/framework/reports/data/report4.xlsx
+++ b/src/test/resources/org/echosoft/framework/reports/data/report4.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28410"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anton/work/echosoft/reports/src/test/resources/org/echosoft/framework/reports/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="273" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23320" windowHeight="9360" tabRatio="273"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,20 @@
     <sheet name="sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
   <si>
     <t>Ведомость</t>
   </si>
@@ -173,21 +186,27 @@
   </si>
   <si>
     <t>Итого:</t>
+  </si>
+  <si>
+    <t>${row:comment}</t>
+  </si>
+  <si>
+    <t>примечание</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0&quot;р.&quot;;\-#,##0&quot;р.&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00;[Red]\-#,##0.00"/>
-    <numFmt numFmtId="173" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="174" formatCode="d/\ mmm/\ yyyy"/>
-    <numFmt numFmtId="175" formatCode="#,##0;[Red]\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="#,###.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;[Red]\-#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="167" formatCode="d/\ mmm/\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="#,##0;[Red]\-#,##0"/>
+    <numFmt numFmtId="169" formatCode="#,###.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -248,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -271,6 +290,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -280,21 +310,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -302,18 +324,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -354,6 +376,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,6 +457,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -779,60 +812,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="25" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -854,73 +888,80 @@
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="8.4499999999999993" customHeight="1">
-      <c r="A6" s="3">
+      <c r="H5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="8.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>6</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>7</v>
       </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5" t="s">
+      <c r="H6" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="30" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="26" t="s">
+      <c r="H7" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="22"/>
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -932,141 +973,141 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:O4"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="9" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1087,115 +1128,115 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1217,141 +1258,141 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="17" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
